--- a/ccode/pandas_data.xlsx
+++ b/ccode/pandas_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9324"/>
+    <workbookView windowWidth="30240" windowHeight="13440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>name</t>
   </si>
@@ -59,6 +59,72 @@
   </si>
   <si>
     <t>小赖</t>
+  </si>
+  <si>
+    <t>订单号</t>
+  </si>
+  <si>
+    <t>客户名称</t>
+  </si>
+  <si>
+    <t>产品类别</t>
+  </si>
+  <si>
+    <t>金额</t>
+  </si>
+  <si>
+    <t>订单日期</t>
+  </si>
+  <si>
+    <t>地区</t>
+  </si>
+  <si>
+    <t>客户地址</t>
+  </si>
+  <si>
+    <t>A集团</t>
+  </si>
+  <si>
+    <t>电子</t>
+  </si>
+  <si>
+    <t>华东</t>
+  </si>
+  <si>
+    <t>浙江省杭州市…</t>
+  </si>
+  <si>
+    <t>B公司</t>
+  </si>
+  <si>
+    <t>家具</t>
+  </si>
+  <si>
+    <t>华北</t>
+  </si>
+  <si>
+    <t>北京市朝阳区…</t>
+  </si>
+  <si>
+    <t>C连锁店</t>
+  </si>
+  <si>
+    <t>服饰</t>
+  </si>
+  <si>
+    <t>华南</t>
+  </si>
+  <si>
+    <t>广东省广州市…</t>
+  </si>
+  <si>
+    <t>食品</t>
+  </si>
+  <si>
+    <t>西南</t>
+  </si>
+  <si>
+    <t>上海市</t>
   </si>
 </sst>
 </file>
@@ -71,13 +137,29 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -544,138 +626,156 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -991,11 +1091,11 @@
   <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1029,7 +1129,6 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3"/>
       <c r="C3" t="s">
         <v>7</v>
       </c>
@@ -1075,14 +1174,151 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="7.11538461538461" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.03846153846154" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.76923076923077" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.8461538461538" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.11538461538461" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="32" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" ht="47" spans="1:7">
+      <c r="A2" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3">
+        <v>500</v>
+      </c>
+      <c r="E2" s="5">
+        <v>44931</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" ht="47" spans="1:7">
+      <c r="A3" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E3" s="5">
+        <v>44932</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" ht="47" spans="1:7">
+      <c r="A4" s="3">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="3">
+        <v>800</v>
+      </c>
+      <c r="E4" s="5">
+        <v>44933</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="6">
+        <v>45324</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>1002</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="6">
+        <v>45324</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1098,7 +1334,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
